--- a/Leaflet/PolygoneRegion.xlsx
+++ b/Leaflet/PolygoneRegion.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>LongEisenrote</t>
   </si>
@@ -150,6 +150,12 @@
   <si>
     <t>LatHerzland</t>
   </si>
+  <si>
+    <t>LongKnFeld</t>
+  </si>
+  <si>
+    <t>LatKnFeld</t>
+  </si>
 </sst>
 </file>
 
@@ -239,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -262,6 +268,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -637,6 +646,12 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AU1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -771,6 +786,12 @@
       <c r="AT2" s="7">
         <v>10.75</v>
       </c>
+      <c r="AU2" s="8">
+        <v>16.44</v>
+      </c>
+      <c r="AV2" s="8">
+        <v>17.81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -911,6 +932,12 @@
       <c r="AT3" s="1">
         <v>10.17</v>
       </c>
+      <c r="AU3" s="3">
+        <v>16.36</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>18.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -1051,6 +1078,12 @@
       <c r="AT4" s="1">
         <v>9.5</v>
       </c>
+      <c r="AU4" s="3">
+        <v>19.28</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>18.93</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -1190,6 +1223,12 @@
       </c>
       <c r="AT5" s="1">
         <v>9.15</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>19.53</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>19.53</v>
       </c>
     </row>
     <row r="6">
@@ -1327,6 +1366,12 @@
       <c r="AT6" s="1">
         <v>8.9</v>
       </c>
+      <c r="AU6" s="3">
+        <v>20.78</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -1353,10 +1398,10 @@
       <c r="H7" s="1">
         <v>2.78</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>8.6</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>5.8</v>
       </c>
       <c r="K7" s="1">
@@ -1425,16 +1470,16 @@
       <c r="AF7" s="1">
         <v>11.04</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AG7" s="10">
         <v>36.46</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AH7" s="10">
         <v>9.45</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="9">
         <v>35.69</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="9">
         <v>5.84</v>
       </c>
       <c r="AK7" s="1">
@@ -1466,6 +1511,12 @@
       </c>
       <c r="AT7" s="1">
         <v>8.57</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>18.46</v>
       </c>
     </row>
     <row r="8">
@@ -1541,10 +1592,10 @@
       <c r="X8" s="1">
         <v>25.15</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="11">
         <v>40.16</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="11">
         <v>17.25</v>
       </c>
       <c r="AA8" s="1">
@@ -1577,10 +1628,10 @@
       <c r="AJ8" s="1">
         <v>6.14</v>
       </c>
-      <c r="AK8" s="8">
+      <c r="AK8" s="9">
         <v>35.69</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AL8" s="9">
         <v>5.84</v>
       </c>
       <c r="AM8" s="1">
@@ -1606,6 +1657,12 @@
       </c>
       <c r="AT8" s="1">
         <v>8.3</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>20.14</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>18.17</v>
       </c>
     </row>
     <row r="9">
@@ -1675,10 +1732,10 @@
       <c r="V9" s="1">
         <v>4.74</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="12">
         <v>27.24</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="12">
         <v>25.21</v>
       </c>
       <c r="Y9" s="1">
@@ -1746,6 +1803,12 @@
       </c>
       <c r="AT9" s="1">
         <v>8.4</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>18.36</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>17.88</v>
       </c>
     </row>
     <row r="10">
@@ -1869,10 +1932,10 @@
       <c r="AN10" s="1">
         <v>22.17</v>
       </c>
-      <c r="AO10" s="10">
+      <c r="AO10" s="11">
         <v>40.16</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AP10" s="11">
         <v>17.25</v>
       </c>
       <c r="AQ10" s="1">
@@ -1886,6 +1949,12 @@
       </c>
       <c r="AT10" s="1">
         <v>7.87</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>17.44</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>17.41</v>
       </c>
     </row>
     <row r="11">
@@ -2003,10 +2072,10 @@
       <c r="AN11" s="1">
         <v>30.72</v>
       </c>
-      <c r="AO11" s="8">
+      <c r="AO11" s="9">
         <v>39.52</v>
       </c>
-      <c r="AP11" s="8">
+      <c r="AP11" s="9">
         <v>17.62</v>
       </c>
       <c r="AQ11" s="1">
@@ -2021,6 +2090,8 @@
       <c r="AT11" s="1">
         <v>7.43</v>
       </c>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -2143,6 +2214,8 @@
       <c r="AT12" s="1">
         <v>8.5</v>
       </c>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -2297,10 +2370,10 @@
       <c r="J14" s="1">
         <v>12.38</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="9">
         <v>8.6</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="9">
         <v>5.8</v>
       </c>
       <c r="O14" s="1">
@@ -2321,10 +2394,10 @@
       <c r="T14" s="1">
         <v>5.72</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="13">
         <v>20.57</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="13">
         <v>8.93</v>
       </c>
       <c r="W14" s="1">
@@ -2747,10 +2820,10 @@
       <c r="F18" s="1">
         <v>2.33</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <v>8.6</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="9">
         <v>5.8</v>
       </c>
       <c r="I18" s="1">
@@ -2847,6 +2920,8 @@
       <c r="AT18" s="1">
         <v>9.01</v>
       </c>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
@@ -2965,6 +3040,8 @@
       <c r="AT19" s="1">
         <v>8.97</v>
       </c>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -3051,10 +3128,10 @@
       <c r="AH20" s="1">
         <v>17.13</v>
       </c>
-      <c r="AI20" s="9">
+      <c r="AI20" s="10">
         <v>36.46</v>
       </c>
-      <c r="AJ20" s="9">
+      <c r="AJ20" s="10">
         <v>9.45</v>
       </c>
       <c r="AK20" s="1">
@@ -3083,6 +3160,8 @@
       <c r="AT20" s="1">
         <v>8.99</v>
       </c>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
     </row>
     <row r="21">
       <c r="E21" s="1">
@@ -3157,10 +3236,10 @@
       <c r="AF21" s="1">
         <v>15.85</v>
       </c>
-      <c r="AG21" s="10">
+      <c r="AG21" s="11">
         <v>40.16</v>
       </c>
-      <c r="AH21" s="10">
+      <c r="AH21" s="11">
         <v>17.25</v>
       </c>
       <c r="AI21" s="1">
@@ -3195,6 +3274,8 @@
       <c r="AT21" s="1">
         <v>8.93</v>
       </c>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
     </row>
     <row r="22">
       <c r="E22" s="1">
@@ -3301,12 +3382,14 @@
       <c r="AR22" s="1">
         <v>22.78</v>
       </c>
-      <c r="AS22" s="13">
+      <c r="AS22" s="14">
         <v>33.93</v>
       </c>
-      <c r="AT22" s="13">
+      <c r="AT22" s="14">
         <v>9.02</v>
       </c>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
     </row>
     <row r="23">
       <c r="E23" s="1">
@@ -3415,6 +3498,8 @@
       <c r="AT23" s="1">
         <v>8.9</v>
       </c>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
     </row>
     <row r="24">
       <c r="E24" s="1">
@@ -3523,6 +3608,8 @@
       <c r="AT24" s="1">
         <v>9.15</v>
       </c>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
     </row>
     <row r="25">
       <c r="E25" s="1">
@@ -3606,10 +3693,10 @@
       <c r="AJ25" s="1">
         <v>6.76</v>
       </c>
-      <c r="AK25" s="13">
+      <c r="AK25" s="14">
         <v>33.93</v>
       </c>
-      <c r="AL25" s="13">
+      <c r="AL25" s="14">
         <v>9.02</v>
       </c>
       <c r="AM25" s="1">
@@ -3632,6 +3719,8 @@
       <c r="AT25" s="1">
         <v>9.19</v>
       </c>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
     </row>
     <row r="26">
       <c r="E26" s="1">
@@ -3736,6 +3825,8 @@
       <c r="AT26" s="1">
         <v>9.35</v>
       </c>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
     </row>
     <row r="27">
       <c r="E27" s="1">
@@ -3830,6 +3921,8 @@
       <c r="AT27" s="1">
         <v>9.53</v>
       </c>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
     </row>
     <row r="28">
       <c r="I28" s="1">
@@ -3882,10 +3975,10 @@
       <c r="AB28" s="1">
         <v>25.4</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AC28" s="13">
         <v>20.57</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AD28" s="13">
         <v>8.93</v>
       </c>
       <c r="AE28" s="1">
@@ -3922,6 +4015,8 @@
       <c r="AT28" s="1">
         <v>9.87</v>
       </c>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
     </row>
     <row r="29">
       <c r="I29" s="1">
@@ -4014,6 +4109,8 @@
       <c r="AT29" s="1">
         <v>10.92</v>
       </c>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
     </row>
     <row r="30">
       <c r="I30" s="1">
@@ -4106,6 +4203,8 @@
       <c r="AT30" s="1">
         <v>12.0</v>
       </c>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
     </row>
     <row r="31">
       <c r="I31" s="1">
@@ -4194,6 +4293,8 @@
       <c r="AT31" s="1">
         <v>12.68</v>
       </c>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
     </row>
     <row r="32">
       <c r="I32" s="1">
@@ -4280,6 +4381,8 @@
       <c r="AT32" s="1">
         <v>13.3</v>
       </c>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
     </row>
     <row r="33">
       <c r="G33" s="1"/>
@@ -4362,6 +4465,8 @@
       <c r="AT33" s="1">
         <v>13.66</v>
       </c>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
     </row>
     <row r="34">
       <c r="G34" s="1"/>
@@ -4438,6 +4543,8 @@
       <c r="AT34" s="1">
         <v>14.36</v>
       </c>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
     </row>
     <row r="35">
       <c r="I35" s="1">
@@ -4510,6 +4617,8 @@
       <c r="AT35" s="1">
         <v>14.36</v>
       </c>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
     </row>
     <row r="36">
       <c r="I36" s="7">
@@ -4582,6 +4691,8 @@
       <c r="AT36" s="3">
         <v>15.52</v>
       </c>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
     </row>
     <row r="37">
       <c r="I37" s="1">
@@ -4652,6 +4763,8 @@
       <c r="AT37" s="6">
         <v>17.65</v>
       </c>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
     </row>
     <row r="38">
       <c r="I38" s="1">
@@ -4716,6 +4829,8 @@
       <c r="AT38" s="1">
         <v>18.86</v>
       </c>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
     </row>
     <row r="39">
       <c r="I39" s="1">
@@ -4780,6 +4895,8 @@
       <c r="AT39" s="1">
         <v>19.27</v>
       </c>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
     </row>
     <row r="40">
       <c r="I40" s="1">
@@ -4844,6 +4961,8 @@
       <c r="AT40" s="1">
         <v>19.89</v>
       </c>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
     </row>
     <row r="41">
       <c r="I41" s="1">
@@ -4908,6 +5027,8 @@
       <c r="AT41" s="1">
         <v>20.38</v>
       </c>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
     </row>
     <row r="42">
       <c r="I42" s="1">
@@ -4974,6 +5095,8 @@
       <c r="AT42" s="1">
         <v>19.73</v>
       </c>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
     </row>
     <row r="43">
       <c r="I43" s="1">
@@ -5040,6 +5163,8 @@
       <c r="AT43" s="1">
         <v>19.26</v>
       </c>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
     </row>
     <row r="44">
       <c r="I44" s="1">
@@ -5074,10 +5199,10 @@
       </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
-      <c r="AE44" s="12">
+      <c r="AE44" s="13">
         <v>20.57</v>
       </c>
-      <c r="AF44" s="12">
+      <c r="AF44" s="13">
         <v>8.93</v>
       </c>
       <c r="AK44" s="1">
@@ -5106,6 +5231,8 @@
       <c r="AT44" s="1">
         <v>18.32</v>
       </c>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
     </row>
     <row r="45">
       <c r="I45" s="1">
@@ -5166,6 +5293,8 @@
       <c r="AT45" s="1">
         <v>17.81</v>
       </c>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
     </row>
     <row r="46">
       <c r="I46" s="1">
@@ -5220,6 +5349,8 @@
       <c r="AT46" s="1">
         <v>17.24</v>
       </c>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
     </row>
     <row r="47">
       <c r="I47" s="1">
@@ -5272,6 +5403,8 @@
       <c r="AT47" s="1">
         <v>17.24</v>
       </c>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
     </row>
     <row r="48">
       <c r="I48" s="1">
@@ -5318,6 +5451,8 @@
       <c r="AT48" s="1">
         <v>16.45</v>
       </c>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
     </row>
     <row r="49">
       <c r="I49" s="1">
@@ -5364,6 +5499,8 @@
       <c r="AT49" s="1">
         <v>15.08</v>
       </c>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
     </row>
     <row r="50">
       <c r="I50" s="1">
@@ -5410,6 +5547,8 @@
       <c r="AT50" s="1">
         <v>13.44</v>
       </c>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
     </row>
     <row r="51">
       <c r="I51" s="1">
@@ -5450,6 +5589,8 @@
       <c r="AT51" s="1">
         <v>11.83</v>
       </c>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
     </row>
     <row r="52">
       <c r="I52" s="1">
@@ -5490,6 +5631,8 @@
       <c r="AT52" s="7">
         <v>10.75</v>
       </c>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
     </row>
     <row r="53">
       <c r="I53" s="1">
@@ -5594,6 +5737,8 @@
       </c>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="3"/>
     </row>
     <row r="56">
       <c r="I56" s="1">
@@ -5630,6 +5775,8 @@
       </c>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1"/>
+      <c r="AU56" s="3"/>
+      <c r="AV56" s="3"/>
     </row>
     <row r="57">
       <c r="I57" s="1">
@@ -5666,6 +5813,8 @@
       </c>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1"/>
+      <c r="AU57" s="3"/>
+      <c r="AV57" s="3"/>
     </row>
     <row r="58">
       <c r="I58" s="1">
@@ -5696,6 +5845,8 @@
       </c>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1"/>
+      <c r="AU58" s="3"/>
+      <c r="AV58" s="3"/>
     </row>
     <row r="59">
       <c r="I59" s="1">
@@ -5726,6 +5877,8 @@
       </c>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="3"/>
     </row>
     <row r="60">
       <c r="I60" s="1">
@@ -5756,6 +5909,8 @@
       </c>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1"/>
+      <c r="AU60" s="3"/>
+      <c r="AV60" s="3"/>
     </row>
     <row r="61">
       <c r="I61" s="1">
@@ -5786,6 +5941,8 @@
       </c>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1"/>
+      <c r="AU61" s="3"/>
+      <c r="AV61" s="3"/>
     </row>
     <row r="62">
       <c r="O62" s="1">

--- a/Leaflet/PolygoneRegion.xlsx
+++ b/Leaflet/PolygoneRegion.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>LongEisenrote</t>
   </si>
@@ -156,6 +156,30 @@
   <si>
     <t>LatKnFeld</t>
   </si>
+  <si>
+    <t>LongSkol</t>
+  </si>
+  <si>
+    <t>LatSkol</t>
+  </si>
+  <si>
+    <t>LongSkul</t>
+  </si>
+  <si>
+    <t>LatSkul</t>
+  </si>
+  <si>
+    <t>LongSkor</t>
+  </si>
+  <si>
+    <t>LatSkor</t>
+  </si>
+  <si>
+    <t>LongSkur</t>
+  </si>
+  <si>
+    <t>LatSkur</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -255,25 +279,19 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -286,6 +304,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -634,10 +655,10 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
@@ -646,11 +667,35 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -693,7 +738,7 @@
       <c r="M2" s="1">
         <v>2.42</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>14.5</v>
       </c>
       <c r="O2" s="1">
@@ -702,7 +747,7 @@
       <c r="P2" s="1">
         <v>22.17</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>10.84</v>
       </c>
       <c r="R2" s="1">
@@ -768,10 +813,10 @@
       <c r="AN2" s="1">
         <v>23.28</v>
       </c>
-      <c r="AO2" s="6">
+      <c r="AO2" s="5">
         <v>33.58</v>
       </c>
-      <c r="AP2" s="6">
+      <c r="AP2" s="5">
         <v>17.65</v>
       </c>
       <c r="AQ2" s="1">
@@ -780,17 +825,41 @@
       <c r="AR2" s="1">
         <v>18.17</v>
       </c>
-      <c r="AS2" s="7">
+      <c r="AS2" s="6">
         <v>23.5</v>
       </c>
-      <c r="AT2" s="7">
+      <c r="AT2" s="6">
         <v>10.75</v>
       </c>
-      <c r="AU2" s="8">
+      <c r="AU2" s="3">
         <v>16.44</v>
       </c>
-      <c r="AV2" s="8">
+      <c r="AV2" s="3">
         <v>17.81</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>26.09</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>29.64</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>26.82</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>27.42</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>30.21</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>30.05</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>29.83</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>28.43</v>
       </c>
     </row>
     <row r="3">
@@ -914,10 +983,10 @@
       <c r="AN3" s="1">
         <v>22.16</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="1">
         <v>35.18</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="1">
         <v>15.52</v>
       </c>
       <c r="AQ3" s="1">
@@ -932,11 +1001,35 @@
       <c r="AT3" s="1">
         <v>10.17</v>
       </c>
-      <c r="AU3" s="3">
+      <c r="AU3" s="1">
         <v>16.36</v>
       </c>
-      <c r="AV3" s="3">
+      <c r="AV3" s="1">
         <v>18.17</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>26.15</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>29.47</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>26.75</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>27.33</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>30.21</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>29.71</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>28.26</v>
       </c>
     </row>
     <row r="4">
@@ -1078,11 +1171,35 @@
       <c r="AT4" s="1">
         <v>9.5</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AU4" s="1">
         <v>19.28</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AV4" s="1">
         <v>18.93</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>26.09</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>29.23</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>26.77</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>30.16</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>29.61</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>28.06</v>
       </c>
     </row>
     <row r="5">
@@ -1224,11 +1341,35 @@
       <c r="AT5" s="1">
         <v>9.15</v>
       </c>
-      <c r="AU5" s="3">
+      <c r="AU5" s="1">
         <v>19.53</v>
       </c>
-      <c r="AV5" s="3">
+      <c r="AV5" s="1">
         <v>19.53</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>26.75</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>28.45</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>26.83</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>30.21</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>30.43</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>29.56</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>27.97</v>
       </c>
     </row>
     <row r="6">
@@ -1268,10 +1409,10 @@
       <c r="L6" s="1">
         <v>10.93</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>5.17</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>14.8</v>
       </c>
       <c r="O6" s="1">
@@ -1366,11 +1507,35 @@
       <c r="AT6" s="1">
         <v>8.9</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="AU6" s="1">
         <v>20.78</v>
       </c>
-      <c r="AV6" s="3">
+      <c r="AV6" s="1">
         <v>18.4</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>26.81</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>28.32</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>27.25</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>26.99</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>30.07</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>29.19</v>
+      </c>
+      <c r="BC6" s="7">
+        <v>29.58</v>
+      </c>
+      <c r="BD6" s="7">
+        <v>27.82</v>
       </c>
     </row>
     <row r="7">
@@ -1398,10 +1563,10 @@
       <c r="H7" s="1">
         <v>2.78</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>8.6</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>5.8</v>
       </c>
       <c r="K7" s="1">
@@ -1470,16 +1635,16 @@
       <c r="AF7" s="1">
         <v>11.04</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="8">
         <v>36.46</v>
       </c>
-      <c r="AH7" s="10">
+      <c r="AH7" s="8">
         <v>9.45</v>
       </c>
-      <c r="AI7" s="9">
+      <c r="AI7" s="5">
         <v>35.69</v>
       </c>
-      <c r="AJ7" s="9">
+      <c r="AJ7" s="5">
         <v>5.84</v>
       </c>
       <c r="AK7" s="1">
@@ -1512,11 +1677,35 @@
       <c r="AT7" s="1">
         <v>8.57</v>
       </c>
-      <c r="AU7" s="3">
+      <c r="AU7" s="1">
         <v>20.5</v>
       </c>
-      <c r="AV7" s="3">
+      <c r="AV7" s="1">
         <v>18.46</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>26.97</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>28.21</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>27.42</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>27.01</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>30.17</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>28.76</v>
+      </c>
+      <c r="BC7" s="7">
+        <v>29.79</v>
+      </c>
+      <c r="BD7" s="7">
+        <v>27.62</v>
       </c>
     </row>
     <row r="8">
@@ -1592,10 +1781,10 @@
       <c r="X8" s="1">
         <v>25.15</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="9">
         <v>40.16</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="9">
         <v>17.25</v>
       </c>
       <c r="AA8" s="1">
@@ -1628,10 +1817,10 @@
       <c r="AJ8" s="1">
         <v>6.14</v>
       </c>
-      <c r="AK8" s="9">
+      <c r="AK8" s="5">
         <v>35.69</v>
       </c>
-      <c r="AL8" s="9">
+      <c r="AL8" s="5">
         <v>5.84</v>
       </c>
       <c r="AM8" s="1">
@@ -1658,11 +1847,35 @@
       <c r="AT8" s="1">
         <v>8.3</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AU8" s="1">
         <v>20.14</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AV8" s="1">
         <v>18.17</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>27.22</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>28.25</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>26.91</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>30.56</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>28.71</v>
+      </c>
+      <c r="BC8" s="7">
+        <v>29.6</v>
+      </c>
+      <c r="BD8" s="7">
+        <v>27.42</v>
       </c>
     </row>
     <row r="9">
@@ -1732,10 +1945,10 @@
       <c r="V9" s="1">
         <v>4.74</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="10">
         <v>27.24</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="10">
         <v>25.21</v>
       </c>
       <c r="Y9" s="1">
@@ -1809,6 +2022,30 @@
       </c>
       <c r="AV9" s="1">
         <v>17.88</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>27.36</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>28.13</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>30.81</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>28.57</v>
+      </c>
+      <c r="BC9" s="7">
+        <v>29.58</v>
+      </c>
+      <c r="BD9" s="7">
+        <v>27.26</v>
       </c>
     </row>
     <row r="10">
@@ -1932,10 +2169,10 @@
       <c r="AN10" s="1">
         <v>22.17</v>
       </c>
-      <c r="AO10" s="11">
+      <c r="AO10" s="9">
         <v>40.16</v>
       </c>
-      <c r="AP10" s="11">
+      <c r="AP10" s="9">
         <v>17.25</v>
       </c>
       <c r="AQ10" s="1">
@@ -1955,6 +2192,30 @@
       </c>
       <c r="AV10" s="1">
         <v>17.41</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>27.53</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>28.13</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>27.88</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>26.7</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>30.85</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>28.65</v>
+      </c>
+      <c r="BC10" s="7">
+        <v>29.63</v>
+      </c>
+      <c r="BD10" s="7">
+        <v>27.21</v>
       </c>
     </row>
     <row r="11">
@@ -2072,10 +2333,10 @@
       <c r="AN11" s="1">
         <v>30.72</v>
       </c>
-      <c r="AO11" s="9">
+      <c r="AO11" s="5">
         <v>39.52</v>
       </c>
-      <c r="AP11" s="9">
+      <c r="AP11" s="5">
         <v>17.62</v>
       </c>
       <c r="AQ11" s="1">
@@ -2090,8 +2351,32 @@
       <c r="AT11" s="1">
         <v>7.43</v>
       </c>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1">
+        <v>27.85</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>27.97</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>28.15</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>26.89</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>28.58</v>
+      </c>
+      <c r="BC11" s="7">
+        <v>29.37</v>
+      </c>
+      <c r="BD11" s="7">
+        <v>27.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -2214,8 +2499,32 @@
       <c r="AT12" s="1">
         <v>8.5</v>
       </c>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1">
+        <v>28.11</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>28.37</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>26.88</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>31.17</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>28.64</v>
+      </c>
+      <c r="BC12" s="7">
+        <v>29.36</v>
+      </c>
+      <c r="BD12" s="7">
+        <v>26.94</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -2344,6 +2653,30 @@
       <c r="AT13" s="1">
         <v>9.2</v>
       </c>
+      <c r="AW13" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>28.19</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>28.63</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>27.06</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>31.11</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>29.07</v>
+      </c>
+      <c r="BC13" s="7">
+        <v>29.54</v>
+      </c>
+      <c r="BD13" s="7">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
@@ -2370,10 +2703,10 @@
       <c r="J14" s="1">
         <v>12.38</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="5">
         <v>8.6</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="5">
         <v>5.8</v>
       </c>
       <c r="O14" s="1">
@@ -2394,10 +2727,10 @@
       <c r="T14" s="1">
         <v>5.72</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="11">
         <v>20.57</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="11">
         <v>8.93</v>
       </c>
       <c r="W14" s="1">
@@ -2424,10 +2757,10 @@
       <c r="AD14" s="1">
         <v>8.57</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AE14" s="6">
         <v>14.72</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AF14" s="6">
         <v>13.48</v>
       </c>
       <c r="AG14" s="1">
@@ -2468,6 +2801,30 @@
       <c r="AT14" s="1">
         <v>9.36</v>
       </c>
+      <c r="AW14" s="1">
+        <v>28.38</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>28.22</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>28.63</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>27.18</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>31.32</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>29.25</v>
+      </c>
+      <c r="BC14" s="7">
+        <v>29.76</v>
+      </c>
+      <c r="BD14" s="7">
+        <v>26.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
@@ -2591,6 +2948,30 @@
       </c>
       <c r="AT15" s="1">
         <v>9.33</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>28.47</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>28.58</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>27.29</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>31.32</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>29.54</v>
+      </c>
+      <c r="BC15" s="7">
+        <v>30.05</v>
+      </c>
+      <c r="BD15" s="7">
+        <v>26.84</v>
       </c>
     </row>
     <row r="16">
@@ -2700,6 +3081,30 @@
       <c r="AT16" s="1">
         <v>9.19</v>
       </c>
+      <c r="AW16" s="1">
+        <v>28.53</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>28.47</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>28.53</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>27.48</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>31.13</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>29.89</v>
+      </c>
+      <c r="BC16" s="7">
+        <v>30.23</v>
+      </c>
+      <c r="BD16" s="7">
+        <v>26.99</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
@@ -2806,6 +3211,30 @@
       <c r="AT17" s="1">
         <v>8.97</v>
       </c>
+      <c r="AW17" s="1">
+        <v>28.75</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>28.57</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>28.43</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>27.58</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>31.17</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="BC17" s="7">
+        <v>30.87</v>
+      </c>
+      <c r="BD17" s="7">
+        <v>26.96</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
@@ -2820,10 +3249,10 @@
       <c r="F18" s="1">
         <v>2.33</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="5">
         <v>8.6</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="5">
         <v>5.8</v>
       </c>
       <c r="I18" s="1">
@@ -2920,8 +3349,32 @@
       <c r="AT18" s="1">
         <v>9.01</v>
       </c>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1">
+        <v>28.92</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>28.52</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>28.15</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>27.61</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>30.92</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>30.17</v>
+      </c>
+      <c r="BC18" s="7">
+        <v>31.03</v>
+      </c>
+      <c r="BD18" s="7">
+        <v>27.09</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
@@ -3040,8 +3493,32 @@
       <c r="AT19" s="1">
         <v>8.97</v>
       </c>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1">
+        <v>29.02</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>28.64</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>28.09</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>27.56</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>30.69</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>30.19</v>
+      </c>
+      <c r="BC19" s="7">
+        <v>31.04</v>
+      </c>
+      <c r="BD19" s="7">
+        <v>27.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -3110,10 +3587,10 @@
       <c r="AB20" s="1">
         <v>25.1</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="6">
         <v>23.5</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AD20" s="6">
         <v>10.75</v>
       </c>
       <c r="AE20" s="1">
@@ -3128,10 +3605,10 @@
       <c r="AH20" s="1">
         <v>17.13</v>
       </c>
-      <c r="AI20" s="10">
+      <c r="AI20" s="8">
         <v>36.46</v>
       </c>
-      <c r="AJ20" s="10">
+      <c r="AJ20" s="8">
         <v>9.45</v>
       </c>
       <c r="AK20" s="1">
@@ -3160,8 +3637,32 @@
       <c r="AT20" s="1">
         <v>8.99</v>
       </c>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1">
+        <v>28.87</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>28.83</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>27.87</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>27.66</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>30.21</v>
+      </c>
+      <c r="BB20" s="3">
+        <v>30.05</v>
+      </c>
+      <c r="BC20" s="12">
+        <v>30.98</v>
+      </c>
+      <c r="BD20" s="12">
+        <v>27.39</v>
+      </c>
     </row>
     <row r="21">
       <c r="E21" s="1">
@@ -3236,10 +3737,10 @@
       <c r="AF21" s="1">
         <v>15.85</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AG21" s="9">
         <v>40.16</v>
       </c>
-      <c r="AH21" s="11">
+      <c r="AH21" s="9">
         <v>17.25</v>
       </c>
       <c r="AI21" s="1">
@@ -3274,8 +3775,28 @@
       <c r="AT21" s="1">
         <v>8.93</v>
       </c>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1">
+        <v>29.06</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>28.84</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>27.56</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>27.58</v>
+      </c>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="7">
+        <v>31.01</v>
+      </c>
+      <c r="BD21" s="7">
+        <v>27.57</v>
+      </c>
     </row>
     <row r="22">
       <c r="E22" s="1">
@@ -3382,14 +3903,34 @@
       <c r="AR22" s="1">
         <v>22.78</v>
       </c>
-      <c r="AS22" s="14">
+      <c r="AS22" s="13">
         <v>33.93</v>
       </c>
-      <c r="AT22" s="14">
+      <c r="AT22" s="13">
         <v>9.02</v>
       </c>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1">
+        <v>29.19</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>28.95</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>27.29</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="7">
+        <v>30.86</v>
+      </c>
+      <c r="BD22" s="7">
+        <v>27.82</v>
+      </c>
     </row>
     <row r="23">
       <c r="E23" s="1">
@@ -3498,8 +4039,28 @@
       <c r="AT23" s="1">
         <v>8.9</v>
       </c>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1">
+        <v>29.12</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>29.16</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>27.08</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>27.98</v>
+      </c>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="7">
+        <v>30.97</v>
+      </c>
+      <c r="BD23" s="7">
+        <v>28.14</v>
+      </c>
     </row>
     <row r="24">
       <c r="E24" s="1">
@@ -3568,10 +4129,10 @@
       <c r="AD24" s="1">
         <v>9.94</v>
       </c>
-      <c r="AE24" s="4">
+      <c r="AE24" s="3">
         <v>16.44</v>
       </c>
-      <c r="AF24" s="4">
+      <c r="AF24" s="3">
         <v>17.81</v>
       </c>
       <c r="AG24" s="1"/>
@@ -3608,8 +4169,28 @@
       <c r="AT24" s="1">
         <v>9.15</v>
       </c>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1">
+        <v>29.28</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>29.16</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>26.74</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>27.86</v>
+      </c>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="7">
+        <v>30.7</v>
+      </c>
+      <c r="BD24" s="7">
+        <v>28.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="E25" s="1">
@@ -3693,10 +4274,10 @@
       <c r="AJ25" s="1">
         <v>6.76</v>
       </c>
-      <c r="AK25" s="14">
+      <c r="AK25" s="13">
         <v>33.93</v>
       </c>
-      <c r="AL25" s="14">
+      <c r="AL25" s="13">
         <v>9.02</v>
       </c>
       <c r="AM25" s="1">
@@ -3719,8 +4300,28 @@
       <c r="AT25" s="1">
         <v>9.19</v>
       </c>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1">
+        <v>29.36</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>29.28</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>26.61</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>27.56</v>
+      </c>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="7">
+        <v>30.51</v>
+      </c>
+      <c r="BD25" s="7">
+        <v>28.11</v>
+      </c>
     </row>
     <row r="26">
       <c r="E26" s="1">
@@ -3825,8 +4426,28 @@
       <c r="AT26" s="1">
         <v>9.35</v>
       </c>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>29.52</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>26.71</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>27.45</v>
+      </c>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="BD26" s="7">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="E27" s="1">
@@ -3921,8 +4542,28 @@
       <c r="AT27" s="1">
         <v>9.53</v>
       </c>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>29.78</v>
+      </c>
+      <c r="AY27" s="3">
+        <v>26.82</v>
+      </c>
+      <c r="AZ27" s="3">
+        <v>27.42</v>
+      </c>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="7">
+        <v>30.15</v>
+      </c>
+      <c r="BD27" s="7">
+        <v>28.31</v>
+      </c>
     </row>
     <row r="28">
       <c r="I28" s="1">
@@ -3975,10 +4616,10 @@
       <c r="AB28" s="1">
         <v>25.4</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AC28" s="11">
         <v>20.57</v>
       </c>
-      <c r="AD28" s="13">
+      <c r="AD28" s="11">
         <v>8.93</v>
       </c>
       <c r="AE28" s="1">
@@ -4015,8 +4656,24 @@
       <c r="AT28" s="1">
         <v>9.87</v>
       </c>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1">
+        <v>29.47</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>29.89</v>
+      </c>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="7">
+        <v>29.96</v>
+      </c>
+      <c r="BD28" s="7">
+        <v>28.29</v>
+      </c>
     </row>
     <row r="29">
       <c r="I29" s="1">
@@ -4109,8 +4766,24 @@
       <c r="AT29" s="1">
         <v>10.92</v>
       </c>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1">
+        <v>29.28</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>29.92</v>
+      </c>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="7">
+        <v>29.91</v>
+      </c>
+      <c r="BD29" s="7">
+        <v>28.37</v>
+      </c>
     </row>
     <row r="30">
       <c r="I30" s="1">
@@ -4203,8 +4876,24 @@
       <c r="AT30" s="1">
         <v>12.0</v>
       </c>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1">
+        <v>29.11</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>30.01</v>
+      </c>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="12">
+        <v>29.83</v>
+      </c>
+      <c r="BD30" s="12">
+        <v>28.43</v>
+      </c>
     </row>
     <row r="31">
       <c r="I31" s="1">
@@ -4293,8 +4982,20 @@
       <c r="AT31" s="1">
         <v>12.68</v>
       </c>
-      <c r="AU31" s="3"/>
-      <c r="AV31" s="3"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1">
+        <v>28.86</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>30.07</v>
+      </c>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
     </row>
     <row r="32">
       <c r="I32" s="1">
@@ -4381,8 +5082,20 @@
       <c r="AT32" s="1">
         <v>13.3</v>
       </c>
-      <c r="AU32" s="3"/>
-      <c r="AV32" s="3"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1">
+        <v>28.78</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>30.01</v>
+      </c>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
     </row>
     <row r="33">
       <c r="G33" s="1"/>
@@ -4465,8 +5178,20 @@
       <c r="AT33" s="1">
         <v>13.66</v>
       </c>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1">
+        <v>28.75</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
     </row>
     <row r="34">
       <c r="G34" s="1"/>
@@ -4543,8 +5268,20 @@
       <c r="AT34" s="1">
         <v>14.36</v>
       </c>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1">
+        <v>28.61</v>
+      </c>
+      <c r="AX34" s="1">
+        <v>30.18</v>
+      </c>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
     </row>
     <row r="35">
       <c r="I35" s="1">
@@ -4617,14 +5354,26 @@
       <c r="AT35" s="1">
         <v>14.36</v>
       </c>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1">
+        <v>28.41</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>30.19</v>
+      </c>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
     </row>
     <row r="36">
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>5.17</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>14.8</v>
       </c>
       <c r="O36" s="1">
@@ -4657,10 +5406,10 @@
       <c r="AB36" s="1">
         <v>23.35</v>
       </c>
-      <c r="AE36" s="7">
+      <c r="AE36" s="6">
         <v>23.5</v>
       </c>
-      <c r="AF36" s="7">
+      <c r="AF36" s="6">
         <v>10.75</v>
       </c>
       <c r="AG36" s="1"/>
@@ -4685,14 +5434,26 @@
       <c r="AR36" s="1">
         <v>24.12</v>
       </c>
-      <c r="AS36" s="3">
+      <c r="AS36" s="1">
         <v>35.18</v>
       </c>
-      <c r="AT36" s="3">
+      <c r="AT36" s="1">
         <v>15.52</v>
       </c>
-      <c r="AU36" s="3"/>
-      <c r="AV36" s="3"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1">
+        <v>28.43</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>30.27</v>
+      </c>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
     </row>
     <row r="37">
       <c r="I37" s="1">
@@ -4707,10 +5468,10 @@
       <c r="P37" s="1">
         <v>16.17</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="6">
         <v>14.72</v>
       </c>
-      <c r="R37" s="7">
+      <c r="R37" s="6">
         <v>13.48</v>
       </c>
       <c r="U37" s="1">
@@ -4757,14 +5518,26 @@
       <c r="AR37" s="1">
         <v>23.95</v>
       </c>
-      <c r="AS37" s="6">
+      <c r="AS37" s="5">
         <v>33.58</v>
       </c>
-      <c r="AT37" s="6">
+      <c r="AT37" s="5">
         <v>17.65</v>
       </c>
-      <c r="AU37" s="3"/>
-      <c r="AV37" s="3"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1">
+        <v>28.37</v>
+      </c>
+      <c r="AX37" s="1">
+        <v>30.37</v>
+      </c>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
     </row>
     <row r="38">
       <c r="I38" s="1">
@@ -4829,8 +5602,20 @@
       <c r="AT38" s="1">
         <v>18.86</v>
       </c>
-      <c r="AU38" s="3"/>
-      <c r="AV38" s="3"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1">
+        <v>28.17</v>
+      </c>
+      <c r="AX38" s="1">
+        <v>30.41</v>
+      </c>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
     </row>
     <row r="39">
       <c r="I39" s="1">
@@ -4895,14 +5680,26 @@
       <c r="AT39" s="1">
         <v>19.27</v>
       </c>
-      <c r="AU39" s="3"/>
-      <c r="AV39" s="3"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1">
+        <v>27.98</v>
+      </c>
+      <c r="AX39" s="1">
+        <v>30.15</v>
+      </c>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
     </row>
     <row r="40">
       <c r="I40" s="1">
         <v>2.42</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
         <v>14.5</v>
       </c>
       <c r="O40" s="1">
@@ -4961,8 +5758,20 @@
       <c r="AT40" s="1">
         <v>19.89</v>
       </c>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="AX40" s="1">
+        <v>30.14</v>
+      </c>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
     </row>
     <row r="41">
       <c r="I41" s="1">
@@ -5027,8 +5836,20 @@
       <c r="AT41" s="1">
         <v>20.38</v>
       </c>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1">
+        <v>27.63</v>
+      </c>
+      <c r="AX41" s="1">
+        <v>30.34</v>
+      </c>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
     </row>
     <row r="42">
       <c r="I42" s="1">
@@ -5095,8 +5916,20 @@
       <c r="AT42" s="1">
         <v>19.73</v>
       </c>
-      <c r="AU42" s="3"/>
-      <c r="AV42" s="3"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1">
+        <v>27.19</v>
+      </c>
+      <c r="AX42" s="1">
+        <v>30.53</v>
+      </c>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
     </row>
     <row r="43">
       <c r="I43" s="1">
@@ -5163,8 +5996,20 @@
       <c r="AT43" s="1">
         <v>19.26</v>
       </c>
-      <c r="AU43" s="3"/>
-      <c r="AV43" s="3"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1">
+        <v>27.1</v>
+      </c>
+      <c r="AX43" s="1">
+        <v>30.63</v>
+      </c>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
     </row>
     <row r="44">
       <c r="I44" s="1">
@@ -5199,10 +6044,10 @@
       </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
-      <c r="AE44" s="13">
+      <c r="AE44" s="11">
         <v>20.57</v>
       </c>
-      <c r="AF44" s="13">
+      <c r="AF44" s="11">
         <v>8.93</v>
       </c>
       <c r="AK44" s="1">
@@ -5231,8 +6076,20 @@
       <c r="AT44" s="1">
         <v>18.32</v>
       </c>
-      <c r="AU44" s="3"/>
-      <c r="AV44" s="3"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1">
+        <v>26.94</v>
+      </c>
+      <c r="AX44" s="1">
+        <v>30.49</v>
+      </c>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
     </row>
     <row r="45">
       <c r="I45" s="1">
@@ -5293,8 +6150,20 @@
       <c r="AT45" s="1">
         <v>17.81</v>
       </c>
-      <c r="AU45" s="3"/>
-      <c r="AV45" s="3"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1">
+        <v>26.73</v>
+      </c>
+      <c r="AX45" s="1">
+        <v>30.55</v>
+      </c>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
     </row>
     <row r="46">
       <c r="I46" s="1">
@@ -5349,8 +6218,20 @@
       <c r="AT46" s="1">
         <v>17.24</v>
       </c>
-      <c r="AU46" s="3"/>
-      <c r="AV46" s="3"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="AX46" s="1">
+        <v>30.44</v>
+      </c>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
     </row>
     <row r="47">
       <c r="I47" s="1">
@@ -5365,10 +6246,10 @@
       <c r="P47" s="1">
         <v>18.49</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="3">
         <v>16.44</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="3">
         <v>17.81</v>
       </c>
       <c r="Y47" s="1">
@@ -5391,7 +6272,7 @@
       </c>
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
-      <c r="AQ47" s="3">
+      <c r="AQ47" s="1">
         <v>10.94</v>
       </c>
       <c r="AR47" s="1">
@@ -5403,8 +6284,20 @@
       <c r="AT47" s="1">
         <v>17.24</v>
       </c>
-      <c r="AU47" s="3"/>
-      <c r="AV47" s="3"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1">
+        <v>26.45</v>
+      </c>
+      <c r="AX47" s="1">
+        <v>30.52</v>
+      </c>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
     </row>
     <row r="48">
       <c r="I48" s="1">
@@ -5451,8 +6344,20 @@
       <c r="AT48" s="1">
         <v>16.45</v>
       </c>
-      <c r="AU48" s="3"/>
-      <c r="AV48" s="3"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1">
+        <v>26.27</v>
+      </c>
+      <c r="AX48" s="1">
+        <v>30.38</v>
+      </c>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
     </row>
     <row r="49">
       <c r="I49" s="1">
@@ -5499,8 +6404,20 @@
       <c r="AT49" s="1">
         <v>15.08</v>
       </c>
-      <c r="AU49" s="3"/>
-      <c r="AV49" s="3"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1">
+        <v>26.08</v>
+      </c>
+      <c r="AX49" s="1">
+        <v>30.44</v>
+      </c>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
     </row>
     <row r="50">
       <c r="I50" s="1">
@@ -5538,7 +6455,7 @@
       <c r="AQ50" s="1">
         <v>11.09</v>
       </c>
-      <c r="AR50" s="3">
+      <c r="AR50" s="1">
         <v>25.06</v>
       </c>
       <c r="AS50" s="1">
@@ -5547,8 +6464,20 @@
       <c r="AT50" s="1">
         <v>13.44</v>
       </c>
-      <c r="AU50" s="3"/>
-      <c r="AV50" s="3"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1">
+        <v>25.96</v>
+      </c>
+      <c r="AX50" s="1">
+        <v>30.36</v>
+      </c>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
     </row>
     <row r="51">
       <c r="I51" s="1">
@@ -5589,8 +6518,20 @@
       <c r="AT51" s="1">
         <v>11.83</v>
       </c>
-      <c r="AU51" s="3"/>
-      <c r="AV51" s="3"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1">
+        <v>25.96</v>
+      </c>
+      <c r="AX51" s="1">
+        <v>30.05</v>
+      </c>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
     </row>
     <row r="52">
       <c r="I52" s="1">
@@ -5625,14 +6566,26 @@
       <c r="AR52" s="1">
         <v>25.17</v>
       </c>
-      <c r="AS52" s="7">
+      <c r="AS52" s="6">
         <v>23.5</v>
       </c>
-      <c r="AT52" s="7">
+      <c r="AT52" s="6">
         <v>10.75</v>
       </c>
-      <c r="AU52" s="3"/>
-      <c r="AV52" s="3"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1">
+        <v>26.28</v>
+      </c>
+      <c r="AX52" s="1">
+        <v>30.05</v>
+      </c>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
     </row>
     <row r="53">
       <c r="I53" s="1">
@@ -5667,6 +6620,12 @@
       <c r="AR53" s="1">
         <v>25.18</v>
       </c>
+      <c r="AW53" s="1">
+        <v>26.41</v>
+      </c>
+      <c r="AX53" s="1">
+        <v>29.91</v>
+      </c>
     </row>
     <row r="54">
       <c r="I54" s="1">
@@ -5701,6 +6660,12 @@
       <c r="AR54" s="1">
         <v>25.38</v>
       </c>
+      <c r="AW54" s="1">
+        <v>26.28</v>
+      </c>
+      <c r="AX54" s="1">
+        <v>29.73</v>
+      </c>
     </row>
     <row r="55">
       <c r="I55" s="1">
@@ -5737,8 +6702,20 @@
       </c>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
-      <c r="AU55" s="3"/>
-      <c r="AV55" s="3"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="3">
+        <v>26.09</v>
+      </c>
+      <c r="AX55" s="3">
+        <v>29.64</v>
+      </c>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
     </row>
     <row r="56">
       <c r="I56" s="1">
@@ -5775,8 +6752,16 @@
       </c>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1"/>
-      <c r="AU56" s="3"/>
-      <c r="AV56" s="3"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
     </row>
     <row r="57">
       <c r="I57" s="1">
@@ -5813,8 +6798,16 @@
       </c>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1"/>
-      <c r="AU57" s="3"/>
-      <c r="AV57" s="3"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
     </row>
     <row r="58">
       <c r="I58" s="1">
@@ -5845,8 +6838,16 @@
       </c>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1"/>
-      <c r="AU58" s="3"/>
-      <c r="AV58" s="3"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
     </row>
     <row r="59">
       <c r="I59" s="1">
@@ -5877,8 +6878,16 @@
       </c>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1"/>
-      <c r="AU59" s="3"/>
-      <c r="AV59" s="3"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
     </row>
     <row r="60">
       <c r="I60" s="1">
@@ -5909,8 +6918,16 @@
       </c>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1"/>
-      <c r="AU60" s="3"/>
-      <c r="AV60" s="3"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
     </row>
     <row r="61">
       <c r="I61" s="1">
@@ -5941,8 +6958,16 @@
       </c>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1"/>
-      <c r="AU61" s="3"/>
-      <c r="AV61" s="3"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
     </row>
     <row r="62">
       <c r="O62" s="1">
